--- a/scantest.xlsx
+++ b/scantest.xlsx
@@ -1,24 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\products-2019\i18n\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="10620"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>D:/products-2019/i18n/test/test.tsx</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>`我似中文ID: ${this.props.userInfo.Eid}`</t>
+  </si>
+  <si>
+    <t>中文'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cargo.中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"中文alt"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cargo.中文alt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cargo.中文123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cargo.退出系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cargo.快速切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -42,14 +124,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,35 +465,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="40.75" customWidth="1"/>
+    <col min="6" max="6" width="32.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>content</v>
-      </c>
-      <c r="B1" t="str">
-        <v>filename</v>
-      </c>
-      <c r="C1" t="str">
-        <v>start</v>
-      </c>
-      <c r="D1" t="str">
-        <v>end</v>
-      </c>
-      <c r="E1" t="str">
-        <v>kind</v>
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>'中文'</v>
-      </c>
-      <c r="B2" t="str">
-        <v>D:/products-2019/i18n/test/test.tsx</v>
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
         <v>346</v>
@@ -413,13 +514,16 @@
       <c r="E2">
         <v>10</v>
       </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>"中文alt"</v>
-      </c>
-      <c r="B3" t="str">
-        <v>D:/products-2019/i18n/test/test.tsx</v>
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1635</v>
@@ -430,13 +534,16 @@
       <c r="E3">
         <v>10</v>
       </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>`我似中文ID: ${this.props.userInfo.Eid}`</v>
-      </c>
-      <c r="B4" t="str">
-        <v>D:/products-2019/i18n/test/test.tsx</v>
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2126</v>
@@ -447,13 +554,16 @@
       <c r="E4">
         <v>210</v>
       </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>退出系统</v>
-      </c>
-      <c r="B5" t="str">
-        <v>D:/products-2019/i18n/test/test.tsx</v>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2429</v>
@@ -464,13 +574,16 @@
       <c r="E5">
         <v>11</v>
       </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>快速切换</v>
-      </c>
-      <c r="B6" t="str">
-        <v>D:/products-2019/i18n/test/test.tsx</v>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2628</v>
@@ -481,10 +594,16 @@
       <c r="E6">
         <v>11</v>
       </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="599" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError sqref="A1:F1 A4:E4 B2:E2 B3:E3 B6:E6 B5:E5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>